--- a/config/impacts.xlsx
+++ b/config/impacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CBAC94-FC67-4B70-AF8F-3E09490F6375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDAF277-BFF2-468C-A75D-447212194942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exiobase" sheetId="1" r:id="rId1"/>
@@ -1843,7 +1843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2878,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/impacts.xlsx
+++ b/config/impacts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDAF277-BFF2-468C-A75D-447212194942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11DBB75-5BBB-42D1-94AD-1AA8652C8F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="exiobase" sheetId="1" r:id="rId1"/>
+    <sheet name="Exiobase" sheetId="1" r:id="rId1"/>
     <sheet name="color" sheetId="3" r:id="rId2"/>
-    <sheet name="german" sheetId="2" r:id="rId3"/>
+    <sheet name="Deutsch" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2879,7 +2879,7 @@
   <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/impacts.xlsx
+++ b/config/impacts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Hector\Kooperationsphase IO-Modelle\exiobase_explorer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11DBB75-5BBB-42D1-94AD-1AA8652C8F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80421604-DB92-459D-B11F-29868E9B652F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection sqref="A1:A127"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,7 +2891,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
